--- a/data_month/zb/工业/工业主要产品产量/机制纸及纸板（外购原纸加工除外）.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/机制纸及纸板（外购原纸加工除外）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3524 +454,4090 @@
           <t>机制纸及纸板（外购原纸加工除外）产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>机制纸及纸板（外购原纸加工除外）产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>482.16</v>
+        <v>321.99</v>
       </c>
       <c r="D2" t="n">
-        <v>4328.45</v>
+        <v>691.05</v>
       </c>
       <c r="E2" t="n">
-        <v>23.5</v>
+        <v>18.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>691.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.8</v>
+        <v>19.5</v>
       </c>
       <c r="C3" t="n">
-        <v>506.01</v>
+        <v>407.75</v>
       </c>
       <c r="D3" t="n">
-        <v>4841.66</v>
+        <v>1094.55</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7</v>
+        <v>19.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>403.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.2</v>
+        <v>17.2</v>
       </c>
       <c r="C4" t="n">
-        <v>548.85</v>
+        <v>425.57</v>
       </c>
       <c r="D4" t="n">
-        <v>5404.3</v>
+        <v>1525.23</v>
       </c>
       <c r="E4" t="n">
-        <v>26.3</v>
+        <v>18.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>430.6800000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.199999999999999</v>
+        <v>18.6</v>
       </c>
       <c r="C5" t="n">
-        <v>321.99</v>
+        <v>430.07</v>
       </c>
       <c r="D5" t="n">
-        <v>691.05</v>
+        <v>1960.77</v>
       </c>
       <c r="E5" t="n">
-        <v>18.9</v>
+        <v>18.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>435.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.5</v>
+        <v>25.1</v>
       </c>
       <c r="C6" t="n">
-        <v>407.75</v>
+        <v>459.43</v>
       </c>
       <c r="D6" t="n">
-        <v>1094.55</v>
+        <v>2432.87</v>
       </c>
       <c r="E6" t="n">
-        <v>19.2</v>
+        <v>19.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>472.0999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.2</v>
+        <v>26.5</v>
       </c>
       <c r="C7" t="n">
-        <v>425.57</v>
+        <v>440.51</v>
       </c>
       <c r="D7" t="n">
-        <v>1525.23</v>
+        <v>2889.46</v>
       </c>
       <c r="E7" t="n">
-        <v>18.2</v>
+        <v>20.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>456.5900000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.6</v>
+        <v>24.9</v>
       </c>
       <c r="C8" t="n">
-        <v>430.07</v>
+        <v>456.45</v>
       </c>
       <c r="D8" t="n">
-        <v>1960.77</v>
+        <v>3347.08</v>
       </c>
       <c r="E8" t="n">
-        <v>18.4</v>
+        <v>21.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>457.6199999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.1</v>
+        <v>29.7</v>
       </c>
       <c r="C9" t="n">
-        <v>459.43</v>
+        <v>488.11</v>
       </c>
       <c r="D9" t="n">
-        <v>2432.87</v>
+        <v>3852.26</v>
       </c>
       <c r="E9" t="n">
-        <v>19.7</v>
+        <v>22.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>505.1800000000003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.5</v>
+        <v>29.5</v>
       </c>
       <c r="C10" t="n">
-        <v>440.51</v>
+        <v>482.16</v>
       </c>
       <c r="D10" t="n">
-        <v>2889.46</v>
+        <v>4328.45</v>
       </c>
       <c r="E10" t="n">
-        <v>20.9</v>
+        <v>23.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>476.1899999999996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.9</v>
+        <v>32.8</v>
       </c>
       <c r="C11" t="n">
-        <v>456.45</v>
+        <v>506.01</v>
       </c>
       <c r="D11" t="n">
-        <v>3347.08</v>
+        <v>4841.66</v>
       </c>
       <c r="E11" t="n">
-        <v>21.4</v>
+        <v>24.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>513.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.7</v>
+        <v>33.2</v>
       </c>
       <c r="C12" t="n">
-        <v>488.11</v>
+        <v>548.85</v>
       </c>
       <c r="D12" t="n">
-        <v>3852.26</v>
+        <v>5404.3</v>
       </c>
       <c r="E12" t="n">
-        <v>22.8</v>
+        <v>26.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>562.6400000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.2</v>
+        <v>28.3</v>
       </c>
       <c r="C13" t="n">
-        <v>584.14</v>
+        <v>469.18</v>
       </c>
       <c r="D13" t="n">
-        <v>5526.14</v>
+        <v>949.21</v>
       </c>
       <c r="E13" t="n">
-        <v>21.2</v>
+        <v>27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>949.21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.5</v>
+        <v>25.2</v>
       </c>
       <c r="C14" t="n">
-        <v>617.5</v>
+        <v>531.34</v>
       </c>
       <c r="D14" t="n">
-        <v>6145.23</v>
+        <v>1457.08</v>
       </c>
       <c r="E14" t="n">
-        <v>20.7</v>
+        <v>26.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>507.8699999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.9</v>
+        <v>25.3</v>
       </c>
       <c r="C15" t="n">
-        <v>647.21</v>
+        <v>548.16</v>
       </c>
       <c r="D15" t="n">
-        <v>6804.3</v>
+        <v>2014.93</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>26.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>557.8500000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.3</v>
+        <v>21.8</v>
       </c>
       <c r="C16" t="n">
-        <v>469.18</v>
+        <v>554.05</v>
       </c>
       <c r="D16" t="n">
-        <v>949.21</v>
+        <v>2572.85</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>25.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>557.9199999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.2</v>
+        <v>22.4</v>
       </c>
       <c r="C17" t="n">
-        <v>531.34</v>
+        <v>584.08</v>
       </c>
       <c r="D17" t="n">
-        <v>1457.08</v>
+        <v>3167.1</v>
       </c>
       <c r="E17" t="n">
-        <v>26.4</v>
+        <v>24.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>594.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.3</v>
+        <v>19.1</v>
       </c>
       <c r="C18" t="n">
-        <v>548.16</v>
+        <v>576.96</v>
       </c>
       <c r="D18" t="n">
-        <v>2014.93</v>
+        <v>3745.68</v>
       </c>
       <c r="E18" t="n">
-        <v>26.7</v>
+        <v>23.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>578.5799999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.8</v>
+        <v>19.9</v>
       </c>
       <c r="C19" t="n">
-        <v>554.05</v>
+        <v>580.45</v>
       </c>
       <c r="D19" t="n">
-        <v>2572.85</v>
+        <v>4334.74</v>
       </c>
       <c r="E19" t="n">
-        <v>25.4</v>
+        <v>23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>589.0599999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.4</v>
+        <v>18.3</v>
       </c>
       <c r="C20" t="n">
-        <v>584.08</v>
+        <v>594.13</v>
       </c>
       <c r="D20" t="n">
-        <v>3167.1</v>
+        <v>4941.66</v>
       </c>
       <c r="E20" t="n">
-        <v>24.9</v>
+        <v>22.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>606.9200000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.1</v>
+        <v>13.2</v>
       </c>
       <c r="C21" t="n">
-        <v>576.96</v>
+        <v>584.14</v>
       </c>
       <c r="D21" t="n">
-        <v>3745.68</v>
+        <v>5526.14</v>
       </c>
       <c r="E21" t="n">
-        <v>23.7</v>
+        <v>21.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>584.4800000000005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.9</v>
+        <v>15.5</v>
       </c>
       <c r="C22" t="n">
-        <v>580.45</v>
+        <v>617.5</v>
       </c>
       <c r="D22" t="n">
-        <v>4334.74</v>
+        <v>6145.23</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>20.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>619.0899999999992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.3</v>
+        <v>12.9</v>
       </c>
       <c r="C23" t="n">
-        <v>594.13</v>
+        <v>647.21</v>
       </c>
       <c r="D23" t="n">
-        <v>4941.66</v>
+        <v>6804.3</v>
       </c>
       <c r="E23" t="n">
-        <v>22.5</v>
+        <v>20</v>
+      </c>
+      <c r="F23" t="n">
+        <v>659.0700000000006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18.3</v>
+        <v>6.8</v>
       </c>
       <c r="C24" t="n">
-        <v>720.5599999999999</v>
+        <v>487.5</v>
       </c>
       <c r="D24" t="n">
-        <v>6413.09</v>
+        <v>1044.69</v>
       </c>
       <c r="E24" t="n">
-        <v>17.4</v>
+        <v>13.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1044.69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.1</v>
+        <v>16.3</v>
       </c>
       <c r="C25" t="n">
-        <v>708.35</v>
+        <v>614.6799999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>7000.39</v>
+        <v>1674.19</v>
       </c>
       <c r="E25" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>629.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.3</v>
+        <v>14.4</v>
       </c>
       <c r="C26" t="n">
-        <v>766.9299999999999</v>
+        <v>635.42</v>
       </c>
       <c r="D26" t="n">
-        <v>7786.97</v>
+        <v>2315.32</v>
       </c>
       <c r="E26" t="n">
-        <v>18.1</v>
+        <v>14.4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>641.1300000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>487.5</v>
+        <v>658.15</v>
       </c>
       <c r="D27" t="n">
-        <v>1044.69</v>
+        <v>2976.89</v>
       </c>
       <c r="E27" t="n">
-        <v>13.3</v>
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>661.5699999999997</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.3</v>
+        <v>18.9</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6799999999999</v>
+        <v>705.03</v>
       </c>
       <c r="D28" t="n">
-        <v>1674.19</v>
+        <v>3690.91</v>
       </c>
       <c r="E28" t="n">
-        <v>14.5</v>
+        <v>16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>714.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.4</v>
+        <v>16.6</v>
       </c>
       <c r="C29" t="n">
-        <v>635.42</v>
+        <v>663.92</v>
       </c>
       <c r="D29" t="n">
-        <v>2315.32</v>
+        <v>4342.42</v>
       </c>
       <c r="E29" t="n">
-        <v>14.4</v>
+        <v>16.1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>651.5100000000002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>17.9</v>
       </c>
       <c r="C30" t="n">
-        <v>658.15</v>
+        <v>666.0700000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>2976.89</v>
+        <v>4981.99</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>16.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>639.5699999999997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.9</v>
+        <v>20.7</v>
       </c>
       <c r="C31" t="n">
-        <v>705.03</v>
+        <v>690.89</v>
       </c>
       <c r="D31" t="n">
-        <v>3690.91</v>
+        <v>5688.74</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>16.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>706.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.6</v>
+        <v>18.3</v>
       </c>
       <c r="C32" t="n">
-        <v>663.92</v>
+        <v>720.5599999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>4342.42</v>
+        <v>6413.09</v>
       </c>
       <c r="E32" t="n">
-        <v>16.1</v>
+        <v>17.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>724.3500000000004</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.9</v>
+        <v>14.1</v>
       </c>
       <c r="C33" t="n">
-        <v>666.0700000000001</v>
+        <v>708.35</v>
       </c>
       <c r="D33" t="n">
-        <v>4981.99</v>
+        <v>7000.39</v>
       </c>
       <c r="E33" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>587.3000000000002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.7</v>
+        <v>18.3</v>
       </c>
       <c r="C34" t="n">
-        <v>690.89</v>
+        <v>766.9299999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>5688.74</v>
+        <v>7786.97</v>
       </c>
       <c r="E34" t="n">
-        <v>16.9</v>
+        <v>18.1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>786.5799999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-2.1</v>
+        <v>13.2</v>
       </c>
       <c r="C35" t="n">
-        <v>691.62</v>
+        <v>555.23</v>
       </c>
       <c r="D35" t="n">
-        <v>6980.94</v>
+        <v>1185.65</v>
       </c>
       <c r="E35" t="n">
-        <v>9.5</v>
+        <v>11.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1185.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.9</v>
+        <v>18.4</v>
       </c>
       <c r="C36" t="n">
-        <v>686.59</v>
+        <v>731.47</v>
       </c>
       <c r="D36" t="n">
-        <v>7689.98</v>
+        <v>1923.82</v>
       </c>
       <c r="E36" t="n">
-        <v>10.6</v>
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>738.1699999999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-4</v>
+        <v>18.5</v>
       </c>
       <c r="C37" t="n">
-        <v>722.46</v>
+        <v>739.76</v>
       </c>
       <c r="D37" t="n">
-        <v>8390.940000000001</v>
+        <v>2658.03</v>
       </c>
       <c r="E37" t="n">
-        <v>8.699999999999999</v>
+        <v>16.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>734.2100000000003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="C38" t="n">
-        <v>555.23</v>
+        <v>737.12</v>
       </c>
       <c r="D38" t="n">
-        <v>1185.65</v>
+        <v>3398.55</v>
       </c>
       <c r="E38" t="n">
-        <v>11.8</v>
+        <v>16.1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>740.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18.4</v>
+        <v>6.2</v>
       </c>
       <c r="C39" t="n">
-        <v>731.47</v>
+        <v>742.73</v>
       </c>
       <c r="D39" t="n">
-        <v>1923.82</v>
+        <v>4172.88</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>14.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>774.3299999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.5</v>
+        <v>6.9</v>
       </c>
       <c r="C40" t="n">
-        <v>739.76</v>
+        <v>698.3200000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>2658.03</v>
+        <v>4850.83</v>
       </c>
       <c r="E40" t="n">
-        <v>16.1</v>
+        <v>13.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>677.9499999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.4</v>
+        <v>4.6</v>
       </c>
       <c r="C41" t="n">
-        <v>737.12</v>
+        <v>705.11</v>
       </c>
       <c r="D41" t="n">
-        <v>3398.55</v>
+        <v>5563.6</v>
       </c>
       <c r="E41" t="n">
-        <v>16.1</v>
+        <v>12.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>712.7700000000004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6.2</v>
+        <v>-0.6</v>
       </c>
       <c r="C42" t="n">
-        <v>742.73</v>
+        <v>688.04</v>
       </c>
       <c r="D42" t="n">
-        <v>4172.88</v>
+        <v>6273.94</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5</v>
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>710.3399999999992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.9</v>
+        <v>-2.1</v>
       </c>
       <c r="C43" t="n">
-        <v>698.3200000000001</v>
+        <v>691.62</v>
       </c>
       <c r="D43" t="n">
-        <v>4850.83</v>
+        <v>6980.94</v>
       </c>
       <c r="E43" t="n">
-        <v>13.1</v>
+        <v>9.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>707</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.6</v>
+        <v>-1.9</v>
       </c>
       <c r="C44" t="n">
-        <v>705.11</v>
+        <v>686.59</v>
       </c>
       <c r="D44" t="n">
-        <v>5563.6</v>
+        <v>7689.98</v>
       </c>
       <c r="E44" t="n">
-        <v>12.3</v>
+        <v>10.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>709.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.6</v>
+        <v>-4</v>
       </c>
       <c r="C45" t="n">
-        <v>688.04</v>
+        <v>722.46</v>
       </c>
       <c r="D45" t="n">
-        <v>6273.94</v>
+        <v>8390.940000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>11</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>700.9600000000009</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>3.8</v>
       </c>
       <c r="C46" t="n">
-        <v>845.2</v>
+        <v>602.58</v>
       </c>
       <c r="D46" t="n">
-        <v>7581.91</v>
+        <v>1157.26</v>
       </c>
       <c r="E46" t="n">
-        <v>10.7</v>
+        <v>-5.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1157.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28.8</v>
+        <v>2.7</v>
       </c>
       <c r="C47" t="n">
-        <v>872.01</v>
+        <v>745.8200000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>8467.379999999999</v>
+        <v>1887.2</v>
       </c>
       <c r="E47" t="n">
-        <v>11.9</v>
+        <v>-0.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>729.9400000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>26.1</v>
+        <v>4.4</v>
       </c>
       <c r="C48" t="n">
-        <v>907.89</v>
+        <v>756.66</v>
       </c>
       <c r="D48" t="n">
-        <v>9388.719999999999</v>
+        <v>2674.36</v>
       </c>
       <c r="E48" t="n">
-        <v>12.1</v>
+        <v>2.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>787.1600000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="C49" t="n">
-        <v>602.58</v>
+        <v>798.45</v>
       </c>
       <c r="D49" t="n">
-        <v>1157.26</v>
+        <v>3446.88</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.8</v>
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>772.52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.7</v>
+        <v>15.7</v>
       </c>
       <c r="C50" t="n">
-        <v>745.8200000000001</v>
+        <v>852.59</v>
       </c>
       <c r="D50" t="n">
-        <v>1887.2</v>
+        <v>4310.4</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2</v>
+        <v>5.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>863.5199999999995</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.4</v>
+        <v>11.5</v>
       </c>
       <c r="C51" t="n">
-        <v>756.66</v>
+        <v>776.72</v>
       </c>
       <c r="D51" t="n">
-        <v>2674.36</v>
+        <v>5081.98</v>
       </c>
       <c r="E51" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>771.5799999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7.7</v>
+        <v>18.8</v>
       </c>
       <c r="C52" t="n">
-        <v>798.45</v>
+        <v>830.25</v>
       </c>
       <c r="D52" t="n">
-        <v>3446.88</v>
+        <v>5946.71</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>864.7300000000005</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15.7</v>
+        <v>18.7</v>
       </c>
       <c r="C53" t="n">
-        <v>852.59</v>
+        <v>828.39</v>
       </c>
       <c r="D53" t="n">
-        <v>4310.4</v>
+        <v>6738.4</v>
       </c>
       <c r="E53" t="n">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>791.6899999999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="C54" t="n">
-        <v>776.72</v>
+        <v>845.2</v>
       </c>
       <c r="D54" t="n">
-        <v>5081.98</v>
+        <v>7581.91</v>
       </c>
       <c r="E54" t="n">
-        <v>6.2</v>
+        <v>10.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>843.5100000000002</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>18.8</v>
+        <v>28.8</v>
       </c>
       <c r="C55" t="n">
-        <v>830.25</v>
+        <v>872.01</v>
       </c>
       <c r="D55" t="n">
-        <v>5946.71</v>
+        <v>8467.379999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>8.300000000000001</v>
+        <v>11.9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>885.4699999999993</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>18.7</v>
+        <v>26.1</v>
       </c>
       <c r="C56" t="n">
-        <v>828.39</v>
+        <v>907.89</v>
       </c>
       <c r="D56" t="n">
-        <v>6738.4</v>
+        <v>9388.719999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>8.800000000000001</v>
+        <v>12.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>921.3400000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.5</v>
+        <v>16.3</v>
       </c>
       <c r="C57" t="n">
-        <v>870</v>
+        <v>668.9</v>
       </c>
       <c r="D57" t="n">
-        <v>8208.799999999999</v>
+        <v>1414.4</v>
       </c>
       <c r="E57" t="n">
-        <v>12.7</v>
+        <v>27.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1414.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8.800000000000001</v>
+        <v>17.4</v>
       </c>
       <c r="C58" t="n">
-        <v>905.9</v>
+        <v>864.3</v>
       </c>
       <c r="D58" t="n">
-        <v>9114.4</v>
+        <v>2284.6</v>
       </c>
       <c r="E58" t="n">
-        <v>12.3</v>
+        <v>22.9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>870.1999999999998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.2</v>
+        <v>13.6</v>
       </c>
       <c r="C59" t="n">
-        <v>917.4</v>
+        <v>844.9</v>
       </c>
       <c r="D59" t="n">
-        <v>10035.7</v>
+        <v>3128.2</v>
       </c>
       <c r="E59" t="n">
-        <v>11.4</v>
+        <v>19.3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>843.5999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16.3</v>
+        <v>11.7</v>
       </c>
       <c r="C60" t="n">
-        <v>668.9</v>
+        <v>878.1</v>
       </c>
       <c r="D60" t="n">
-        <v>1414.4</v>
+        <v>4018.1</v>
       </c>
       <c r="E60" t="n">
-        <v>27.9</v>
+        <v>18.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>889.9000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>17.4</v>
+        <v>6.2</v>
       </c>
       <c r="C61" t="n">
-        <v>864.3</v>
+        <v>897.1</v>
       </c>
       <c r="D61" t="n">
-        <v>2284.6</v>
+        <v>4926.7</v>
       </c>
       <c r="E61" t="n">
-        <v>22.9</v>
+        <v>15.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>908.5999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13.6</v>
+        <v>7.4</v>
       </c>
       <c r="C62" t="n">
-        <v>844.9</v>
+        <v>823.4</v>
       </c>
       <c r="D62" t="n">
-        <v>3128.2</v>
+        <v>5746.6</v>
       </c>
       <c r="E62" t="n">
-        <v>19.3</v>
+        <v>14.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>819.9000000000005</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11.7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>878.1</v>
+        <v>846.1</v>
       </c>
       <c r="D63" t="n">
-        <v>4018.1</v>
+        <v>6520.5</v>
       </c>
       <c r="E63" t="n">
-        <v>18.1</v>
+        <v>14.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>773.8999999999996</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>897.1</v>
+        <v>864</v>
       </c>
       <c r="D64" t="n">
-        <v>4926.7</v>
+        <v>7339.2</v>
       </c>
       <c r="E64" t="n">
-        <v>15.7</v>
+        <v>13.4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>818.6999999999998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="C65" t="n">
-        <v>823.4</v>
+        <v>870</v>
       </c>
       <c r="D65" t="n">
-        <v>5746.6</v>
+        <v>8208.799999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>14.5</v>
+        <v>12.7</v>
+      </c>
+      <c r="F65" t="n">
+        <v>869.5999999999995</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>846.1</v>
+        <v>905.9</v>
       </c>
       <c r="D66" t="n">
-        <v>6520.5</v>
+        <v>9114.4</v>
       </c>
       <c r="E66" t="n">
-        <v>14.2</v>
+        <v>12.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>905.6000000000004</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C67" t="n">
-        <v>864</v>
+        <v>917.4</v>
       </c>
       <c r="D67" t="n">
-        <v>7339.2</v>
+        <v>10035.7</v>
       </c>
       <c r="E67" t="n">
-        <v>13.4</v>
+        <v>11.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>921.3000000000011</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10.3</v>
+        <v>12.8</v>
       </c>
       <c r="C68" t="n">
-        <v>954.7</v>
+        <v>720.1</v>
       </c>
       <c r="D68" t="n">
-        <v>9271.9</v>
+        <v>1576.2</v>
       </c>
       <c r="E68" t="n">
-        <v>14.8</v>
+        <v>16.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1576.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="C69" t="n">
-        <v>1001.7</v>
+        <v>936.1</v>
       </c>
       <c r="D69" t="n">
-        <v>10172.7</v>
+        <v>2479.6</v>
       </c>
       <c r="E69" t="n">
-        <v>15</v>
+        <v>13.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>903.3999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5.1</v>
+        <v>16.3</v>
       </c>
       <c r="C70" t="n">
-        <v>946.8</v>
+        <v>941.6</v>
       </c>
       <c r="D70" t="n">
-        <v>11034.3</v>
+        <v>3427.9</v>
       </c>
       <c r="E70" t="n">
-        <v>13.2</v>
+        <v>14.6</v>
+      </c>
+      <c r="F70" t="n">
+        <v>948.3000000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="C71" t="n">
-        <v>720.1</v>
+        <v>953.9</v>
       </c>
       <c r="D71" t="n">
-        <v>1576.2</v>
+        <v>4385.1</v>
       </c>
       <c r="E71" t="n">
-        <v>16.1</v>
+        <v>14.3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>957.2000000000003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>14.1</v>
+        <v>18.1</v>
       </c>
       <c r="C72" t="n">
-        <v>936.1</v>
+        <v>1026.6</v>
       </c>
       <c r="D72" t="n">
-        <v>2479.6</v>
+        <v>5415.3</v>
       </c>
       <c r="E72" t="n">
-        <v>13.8</v>
+        <v>14.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1030.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>16.3</v>
+        <v>18.3</v>
       </c>
       <c r="C73" t="n">
-        <v>941.6</v>
+        <v>947.7</v>
       </c>
       <c r="D73" t="n">
-        <v>3427.9</v>
+        <v>6369.6</v>
       </c>
       <c r="E73" t="n">
-        <v>14.6</v>
+        <v>15.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>954.3000000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>13.6</v>
+        <v>16.4</v>
       </c>
       <c r="C74" t="n">
-        <v>953.9</v>
+        <v>962.7</v>
       </c>
       <c r="D74" t="n">
-        <v>4385.1</v>
+        <v>7346.5</v>
       </c>
       <c r="E74" t="n">
-        <v>14.3</v>
+        <v>15.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>976.8999999999996</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18.1</v>
+        <v>12.3</v>
       </c>
       <c r="C75" t="n">
-        <v>1026.6</v>
+        <v>962.3</v>
       </c>
       <c r="D75" t="n">
-        <v>5415.3</v>
+        <v>8306.700000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>960.2000000000007</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>18.3</v>
+        <v>10.3</v>
       </c>
       <c r="C76" t="n">
-        <v>947.7</v>
+        <v>954.7</v>
       </c>
       <c r="D76" t="n">
-        <v>6369.6</v>
+        <v>9271.9</v>
       </c>
       <c r="E76" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>965.1999999999989</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>16.4</v>
+        <v>13.5</v>
       </c>
       <c r="C77" t="n">
-        <v>962.7</v>
+        <v>1001.7</v>
       </c>
       <c r="D77" t="n">
-        <v>7346.5</v>
+        <v>10172.7</v>
       </c>
       <c r="E77" t="n">
-        <v>15.5</v>
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>900.8000000000011</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>12.3</v>
+        <v>5.1</v>
       </c>
       <c r="C78" t="n">
-        <v>962.3</v>
+        <v>946.8</v>
       </c>
       <c r="D78" t="n">
-        <v>8306.700000000001</v>
+        <v>11034.3</v>
       </c>
       <c r="E78" t="n">
-        <v>15.2</v>
+        <v>13.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>861.5999999999985</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6.9</v>
+        <v>20.9</v>
       </c>
       <c r="C79" t="n">
-        <v>1003.8</v>
+        <v>887.6</v>
       </c>
       <c r="D79" t="n">
-        <v>9685</v>
+        <v>1746.2</v>
       </c>
       <c r="E79" t="n">
-        <v>5.5</v>
+        <v>13</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1746.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.8</v>
+        <v>13.5</v>
       </c>
       <c r="C80" t="n">
-        <v>1015.3</v>
+        <v>1084.3</v>
       </c>
       <c r="D80" t="n">
-        <v>10700.1</v>
+        <v>2785.1</v>
       </c>
       <c r="E80" t="n">
-        <v>5.3</v>
+        <v>10.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1038.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>1012</v>
+        <v>1029.3</v>
       </c>
       <c r="D81" t="n">
-        <v>11375.5</v>
+        <v>3805.6</v>
       </c>
       <c r="E81" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1020.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>20.9</v>
+        <v>6.4</v>
       </c>
       <c r="C82" t="n">
-        <v>887.6</v>
+        <v>1015</v>
       </c>
       <c r="D82" t="n">
-        <v>1746.2</v>
+        <v>4760</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>954.4000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="C83" t="n">
-        <v>1084.3</v>
+        <v>1042.4</v>
       </c>
       <c r="D83" t="n">
-        <v>2785.1</v>
+        <v>5754.8</v>
       </c>
       <c r="E83" t="n">
-        <v>10.2</v>
+        <v>7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>994.8000000000002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="C84" t="n">
-        <v>1029.3</v>
+        <v>976.7</v>
       </c>
       <c r="D84" t="n">
-        <v>3805.6</v>
+        <v>6733.3</v>
       </c>
       <c r="E84" t="n">
-        <v>9.6</v>
+        <v>6.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>978.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="C85" t="n">
-        <v>1015</v>
+        <v>975.8</v>
       </c>
       <c r="D85" t="n">
-        <v>4760</v>
+        <v>7678</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>5.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>944.6999999999998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="C86" t="n">
-        <v>1042.4</v>
+        <v>1017.2</v>
       </c>
       <c r="D86" t="n">
-        <v>5754.8</v>
+        <v>8694</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>5.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1016</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="C87" t="n">
-        <v>976.7</v>
+        <v>1003.8</v>
       </c>
       <c r="D87" t="n">
-        <v>6733.3</v>
+        <v>9685</v>
       </c>
       <c r="E87" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>991</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C88" t="n">
-        <v>975.8</v>
+        <v>1015.3</v>
       </c>
       <c r="D88" t="n">
-        <v>7678</v>
+        <v>10700.1</v>
       </c>
       <c r="E88" t="n">
         <v>5.3</v>
       </c>
+      <c r="F88" t="n">
+        <v>1015.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="C89" t="n">
-        <v>1017.2</v>
+        <v>1012</v>
       </c>
       <c r="D89" t="n">
-        <v>8694</v>
+        <v>11375.5</v>
       </c>
       <c r="E89" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>675.3999999999996</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1010.6</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>9734</v>
+        <v>1745</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2</v>
+        <v>-2.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1745</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.4</v>
+        <v>-1.3</v>
       </c>
       <c r="C91" t="n">
-        <v>1003.7</v>
+        <v>1083.2</v>
       </c>
       <c r="D91" t="n">
-        <v>10664.2</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
+        <v>2855.3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1110.3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.8</v>
+        <v>1.6</v>
       </c>
       <c r="C92" t="n">
-        <v>988.5</v>
+        <v>1052.7</v>
       </c>
       <c r="D92" t="n">
-        <v>11514.3</v>
+        <v>3886.4</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1031.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1012.1</v>
+      </c>
       <c r="D93" t="n">
-        <v>1745</v>
+        <v>4866.8</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>980.4000000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="C94" t="n">
-        <v>1083.2</v>
+        <v>1027.3</v>
       </c>
       <c r="D94" t="n">
-        <v>2855.3</v>
+        <v>5912.7</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1045.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.6</v>
+        <v>-2.9</v>
       </c>
       <c r="C95" t="n">
-        <v>1052.7</v>
+        <v>956.2</v>
       </c>
       <c r="D95" t="n">
-        <v>3886.4</v>
+        <v>6804.9</v>
       </c>
       <c r="E95" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>892.1999999999998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1.1</v>
+        <v>-2.6</v>
       </c>
       <c r="C96" t="n">
-        <v>1012.1</v>
+        <v>957.8</v>
       </c>
       <c r="D96" t="n">
-        <v>4866.8</v>
+        <v>7741.9</v>
       </c>
       <c r="E96" t="n">
         <v>0.5</v>
       </c>
+      <c r="F96" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="C97" t="n">
-        <v>1027.3</v>
+        <v>1019.8</v>
       </c>
       <c r="D97" t="n">
-        <v>5912.7</v>
+        <v>8766.4</v>
       </c>
       <c r="E97" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1024.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-2.9</v>
+        <v>0.1</v>
       </c>
       <c r="C98" t="n">
-        <v>956.2</v>
+        <v>1010.6</v>
       </c>
       <c r="D98" t="n">
-        <v>6804.9</v>
+        <v>9734</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>967.6000000000004</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-2.6</v>
+        <v>-0.4</v>
       </c>
       <c r="C99" t="n">
-        <v>957.8</v>
+        <v>1003.7</v>
       </c>
       <c r="D99" t="n">
-        <v>7741.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.5</v>
+        <v>10664.2</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>930.2000000000007</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>-0.8</v>
       </c>
       <c r="C100" t="n">
-        <v>1019.8</v>
+        <v>988.5</v>
       </c>
       <c r="D100" t="n">
-        <v>8766.4</v>
+        <v>11514.3</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>850.0999999999985</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1026.5</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>9967.6</v>
+        <v>1725.4</v>
       </c>
       <c r="E101" t="n">
         <v>3.8</v>
       </c>
+      <c r="F101" t="n">
+        <v>1725.4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-2.1</v>
+        <v>3.9</v>
       </c>
       <c r="C102" t="n">
-        <v>1011.2</v>
+        <v>1078.1</v>
       </c>
       <c r="D102" t="n">
-        <v>10981.4</v>
+        <v>2832.4</v>
       </c>
       <c r="E102" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.7</v>
+        <v>3.3</v>
       </c>
       <c r="C103" t="n">
-        <v>1003.8</v>
+        <v>1038.4</v>
       </c>
       <c r="D103" t="n">
-        <v>11785.8</v>
+        <v>3850.6</v>
       </c>
       <c r="E103" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1018.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1032.8</v>
+      </c>
       <c r="D104" t="n">
-        <v>1725.4</v>
+        <v>4933</v>
       </c>
       <c r="E104" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1082.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="C105" t="n">
-        <v>1078.1</v>
+        <v>1038.2</v>
       </c>
       <c r="D105" t="n">
-        <v>2832.4</v>
+        <v>5953.3</v>
       </c>
       <c r="E105" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1020.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>983</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6927.2</v>
+      </c>
+      <c r="E106" t="n">
         <v>3.3</v>
       </c>
-      <c r="C106" t="n">
-        <v>1038.4</v>
-      </c>
-      <c r="D106" t="n">
-        <v>3850.6</v>
-      </c>
-      <c r="E106" t="n">
-        <v>4.3</v>
+      <c r="F106" t="n">
+        <v>973.8999999999996</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="C107" t="n">
-        <v>1032.8</v>
+        <v>999.4</v>
       </c>
       <c r="D107" t="n">
-        <v>4933</v>
+        <v>7925.6</v>
       </c>
       <c r="E107" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>998.4000000000005</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.4</v>
+        <v>-1.1</v>
       </c>
       <c r="C108" t="n">
-        <v>1038.2</v>
+        <v>1004.6</v>
       </c>
       <c r="D108" t="n">
-        <v>5953.3</v>
+        <v>8946.799999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1021.199999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.7</v>
+        <v>-0.6</v>
       </c>
       <c r="C109" t="n">
-        <v>983</v>
+        <v>1026.5</v>
       </c>
       <c r="D109" t="n">
-        <v>6927.2</v>
+        <v>9967.6</v>
       </c>
       <c r="E109" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1020.800000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5.1</v>
+        <v>-2.1</v>
       </c>
       <c r="C110" t="n">
-        <v>999.4</v>
+        <v>1011.2</v>
       </c>
       <c r="D110" t="n">
-        <v>7925.6</v>
+        <v>10981.4</v>
       </c>
       <c r="E110" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1013.799999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1.1</v>
+        <v>-1.7</v>
       </c>
       <c r="C111" t="n">
-        <v>1004.6</v>
+        <v>1003.8</v>
       </c>
       <c r="D111" t="n">
-        <v>8946.799999999999</v>
+        <v>11785.8</v>
       </c>
       <c r="E111" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>804.3999999999996</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-1.3</v>
+        <v>-6.6</v>
       </c>
       <c r="C112" t="n">
-        <v>999.3</v>
+        <v>734.8</v>
       </c>
       <c r="D112" t="n">
-        <v>9789.299999999999</v>
+        <v>1697.6</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1697.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.9</v>
+        <v>-6.3</v>
       </c>
       <c r="C113" t="n">
-        <v>1034</v>
+        <v>976.3</v>
       </c>
       <c r="D113" t="n">
-        <v>10827.7</v>
+        <v>2690.6</v>
       </c>
       <c r="E113" t="n">
-        <v>1.1</v>
+        <v>-2.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>993</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3.2</v>
+        <v>-0.6</v>
       </c>
       <c r="C114" t="n">
-        <v>1026.1</v>
+        <v>1010.4</v>
       </c>
       <c r="D114" t="n">
-        <v>11773.9</v>
+        <v>3688</v>
       </c>
       <c r="E114" t="n">
-        <v>1.7</v>
+        <v>-2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>997.4000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-6.6</v>
+        <v>0.9</v>
       </c>
       <c r="C115" t="n">
-        <v>734.8</v>
+        <v>1006.2</v>
       </c>
       <c r="D115" t="n">
-        <v>1697.6</v>
+        <v>4695</v>
       </c>
       <c r="E115" t="n">
-        <v>1.8</v>
+        <v>-1.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1007</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-6.3</v>
+        <v>2.4</v>
       </c>
       <c r="C116" t="n">
-        <v>976.3</v>
+        <v>1032.7</v>
       </c>
       <c r="D116" t="n">
-        <v>2690.6</v>
+        <v>5763.6</v>
       </c>
       <c r="E116" t="n">
-        <v>-2.3</v>
+        <v>0.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1068.6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.6</v>
+        <v>2.8</v>
       </c>
       <c r="C117" t="n">
-        <v>1010.4</v>
+        <v>985.7</v>
       </c>
       <c r="D117" t="n">
-        <v>3688</v>
+        <v>6730.3</v>
       </c>
       <c r="E117" t="n">
-        <v>-2</v>
+        <v>0.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>966.6999999999998</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C118" t="n">
-        <v>1006.2</v>
+        <v>988.7</v>
       </c>
       <c r="D118" t="n">
-        <v>4695</v>
+        <v>7715.9</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.3</v>
+        <v>0.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>985.5999999999995</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="C119" t="n">
-        <v>1032.7</v>
+        <v>1013.9</v>
       </c>
       <c r="D119" t="n">
-        <v>5763.6</v>
+        <v>8782</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1066.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2.8</v>
+        <v>-1.3</v>
       </c>
       <c r="C120" t="n">
-        <v>985.7</v>
+        <v>999.3</v>
       </c>
       <c r="D120" t="n">
-        <v>6730.3</v>
+        <v>9789.299999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1007.299999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="C121" t="n">
-        <v>988.7</v>
+        <v>1034</v>
       </c>
       <c r="D121" t="n">
-        <v>7715.9</v>
+        <v>10827.7</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1038.400000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="C122" t="n">
-        <v>1013.9</v>
+        <v>1026.1</v>
       </c>
       <c r="D122" t="n">
-        <v>8782</v>
+        <v>11773.9</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>1.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>946.1999999999989</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1070.1</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>10088.5</v>
+        <v>1731.1</v>
       </c>
       <c r="E123" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1731.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.7</v>
+        <v>9.1</v>
       </c>
       <c r="C124" t="n">
-        <v>1081.7</v>
+        <v>1060</v>
       </c>
       <c r="D124" t="n">
-        <v>11191.8</v>
+        <v>2840.6</v>
       </c>
       <c r="E124" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1109.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="C125" t="n">
-        <v>1111.6</v>
+        <v>1028</v>
       </c>
       <c r="D125" t="n">
-        <v>12319.2</v>
+        <v>3880.7</v>
       </c>
       <c r="E125" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1040.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1031.5</v>
+      </c>
       <c r="D126" t="n">
-        <v>1731.1</v>
+        <v>4898.7</v>
       </c>
       <c r="E126" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1018</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>9.1</v>
+        <v>0.1</v>
       </c>
       <c r="C127" t="n">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="D127" t="n">
-        <v>2840.6</v>
+        <v>5967.6</v>
       </c>
       <c r="E127" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1068.900000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C128" t="n">
-        <v>1028</v>
+        <v>1009.7</v>
       </c>
       <c r="D128" t="n">
-        <v>3880.7</v>
+        <v>6987.3</v>
       </c>
       <c r="E128" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1019.7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.1</v>
+        <v>-2.5</v>
       </c>
       <c r="C129" t="n">
-        <v>1031.5</v>
+        <v>988</v>
       </c>
       <c r="D129" t="n">
-        <v>4898.7</v>
+        <v>7970.9</v>
       </c>
       <c r="E129" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>983.5999999999995</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1</v>
+        <v>-2.2</v>
       </c>
       <c r="C130" t="n">
-        <v>1044</v>
+        <v>1018.6</v>
       </c>
       <c r="D130" t="n">
-        <v>5967.6</v>
+        <v>9017.9</v>
       </c>
       <c r="E130" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1047</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="C131" t="n">
-        <v>1009.7</v>
+        <v>1070.1</v>
       </c>
       <c r="D131" t="n">
-        <v>6987.3</v>
+        <v>10088.5</v>
       </c>
       <c r="E131" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1070.6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-2.5</v>
+        <v>1.7</v>
       </c>
       <c r="C132" t="n">
-        <v>988</v>
+        <v>1081.7</v>
       </c>
       <c r="D132" t="n">
-        <v>7970.9</v>
+        <v>11191.8</v>
       </c>
       <c r="E132" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1103.299999999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-2.2</v>
+        <v>6.2</v>
       </c>
       <c r="C133" t="n">
-        <v>1018.6</v>
+        <v>1111.6</v>
       </c>
       <c r="D133" t="n">
-        <v>9017.9</v>
+        <v>12319.2</v>
       </c>
       <c r="E133" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1127.400000000001</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1089.9</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>10633.2</v>
+        <v>1911.6</v>
       </c>
       <c r="E134" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1911.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-3.4</v>
+        <v>3.3</v>
       </c>
       <c r="C135" t="n">
-        <v>1055.3</v>
+        <v>1112.5</v>
       </c>
       <c r="D135" t="n">
-        <v>11590</v>
+        <v>3034.1</v>
       </c>
       <c r="E135" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1122.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-4.1</v>
+        <v>4.3</v>
       </c>
       <c r="C136" t="n">
-        <v>1067.8</v>
+        <v>1095.4</v>
       </c>
       <c r="D136" t="n">
-        <v>12542</v>
+        <v>4128</v>
       </c>
       <c r="E136" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1093.9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1096.3</v>
+      </c>
       <c r="D137" t="n">
-        <v>1911.6</v>
+        <v>5250.2</v>
       </c>
       <c r="E137" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1122.2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="C138" t="n">
-        <v>1112.5</v>
+        <v>1122.9</v>
       </c>
       <c r="D138" t="n">
-        <v>3034.1</v>
+        <v>6366.3</v>
       </c>
       <c r="E138" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1116.1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1057.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7423.9</v>
+      </c>
+      <c r="E139" t="n">
         <v>4.3</v>
       </c>
-      <c r="C139" t="n">
-        <v>1095.4</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4128</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.6</v>
+      <c r="F139" t="n">
+        <v>1057.599999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="C140" t="n">
-        <v>1096.3</v>
+        <v>1050</v>
       </c>
       <c r="D140" t="n">
-        <v>5250.2</v>
+        <v>8467</v>
       </c>
       <c r="E140" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1043.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="C141" t="n">
-        <v>1122.9</v>
+        <v>1094.5</v>
       </c>
       <c r="D141" t="n">
-        <v>6366.3</v>
+        <v>9559.4</v>
       </c>
       <c r="E141" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1092.4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>-0.3</v>
       </c>
       <c r="C142" t="n">
-        <v>1057.3</v>
+        <v>1089.9</v>
       </c>
       <c r="D142" t="n">
-        <v>7423.9</v>
+        <v>10633.2</v>
       </c>
       <c r="E142" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1073.800000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="C143" t="n">
-        <v>1050</v>
+        <v>1055.3</v>
       </c>
       <c r="D143" t="n">
-        <v>8467</v>
+        <v>11590</v>
       </c>
       <c r="E143" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>956.7999999999993</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5.3</v>
+        <v>-4.1</v>
       </c>
       <c r="C144" t="n">
-        <v>1094.5</v>
+        <v>1067.8</v>
       </c>
       <c r="D144" t="n">
-        <v>9559.4</v>
+        <v>12542</v>
       </c>
       <c r="E144" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>952</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="C145" t="n">
-        <v>963.6</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>9735.299999999999</v>
+        <v>1805.1</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.7</v>
+        <v>-2.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1805.1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-2</v>
+        <v>1.9</v>
       </c>
       <c r="C146" t="n">
-        <v>979.7</v>
+        <v>1088.8</v>
       </c>
       <c r="D146" t="n">
-        <v>10748.1</v>
+        <v>2882.5</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.5</v>
+        <v>-0.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1077.4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="C147" t="n">
-        <v>1043</v>
+        <v>1068.2</v>
       </c>
       <c r="D147" t="n">
-        <v>11660.6</v>
+        <v>3942.8</v>
       </c>
       <c r="E147" t="n">
-        <v>-1.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1060.3</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1049.7</v>
+      </c>
       <c r="D148" t="n">
-        <v>1805.1</v>
+        <v>4983.6</v>
       </c>
       <c r="E148" t="n">
-        <v>-2.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1040.8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.9</v>
+        <v>-5.1</v>
       </c>
       <c r="C149" t="n">
-        <v>1088.8</v>
+        <v>1013.5</v>
       </c>
       <c r="D149" t="n">
-        <v>2882.5</v>
+        <v>5985.9</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1002.299999999999</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.3</v>
+        <v>-1.3</v>
       </c>
       <c r="C150" t="n">
-        <v>1068.2</v>
+        <v>999.3</v>
       </c>
       <c r="D150" t="n">
-        <v>3942.8</v>
+        <v>6923.3</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1</v>
+        <v>-0.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>937.4000000000005</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="C151" t="n">
-        <v>1049.7</v>
+        <v>1005.6</v>
       </c>
       <c r="D151" t="n">
-        <v>4983.6</v>
+        <v>7925.4</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1</v>
+        <v>-0.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1002.099999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-5.1</v>
+        <v>-4.7</v>
       </c>
       <c r="C152" t="n">
-        <v>1013.5</v>
+        <v>989.9</v>
       </c>
       <c r="D152" t="n">
-        <v>5985.9</v>
+        <v>8866.4</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>941</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1.3</v>
+        <v>-5.8</v>
       </c>
       <c r="C153" t="n">
-        <v>999.3</v>
+        <v>963.6</v>
       </c>
       <c r="D153" t="n">
-        <v>6923.3</v>
+        <v>9735.299999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.9</v>
+        <v>-1.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>868.8999999999996</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-0.4</v>
+        <v>-2</v>
       </c>
       <c r="C154" t="n">
-        <v>1005.6</v>
+        <v>979.7</v>
       </c>
       <c r="D154" t="n">
-        <v>7925.4</v>
+        <v>10748.1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.8</v>
+        <v>-1.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1012.800000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-4.7</v>
+        <v>2.8</v>
       </c>
       <c r="C155" t="n">
-        <v>989.9</v>
+        <v>1043</v>
       </c>
       <c r="D155" t="n">
-        <v>8866.4</v>
+        <v>11660.6</v>
       </c>
       <c r="E155" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>912.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1071.4</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>10346</v>
+        <v>1692.9</v>
       </c>
       <c r="E156" t="n">
-        <v>3.3</v>
+        <v>-1.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1692.9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="C157" t="n">
-        <v>1081.3</v>
+        <v>1047.2</v>
       </c>
       <c r="D157" t="n">
-        <v>11375.8</v>
+        <v>2746</v>
       </c>
       <c r="E157" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1053.1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7.9</v>
+        <v>-3.5</v>
       </c>
       <c r="C158" t="n">
-        <v>1157.96731</v>
+        <v>991.5</v>
       </c>
       <c r="D158" t="n">
-        <v>12515.2969</v>
+        <v>3730.5</v>
       </c>
       <c r="E158" t="n">
-        <v>3.5</v>
+        <v>-0.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>984.5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1064.8</v>
+      </c>
       <c r="D159" t="n">
-        <v>1692.9</v>
+        <v>4865.9</v>
       </c>
       <c r="E159" t="n">
-        <v>-1.4</v>
+        <v>0.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1135.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="C160" t="n">
-        <v>1047.2</v>
+        <v>1042.1</v>
       </c>
       <c r="D160" t="n">
-        <v>2746</v>
+        <v>5902.4</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1036.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-3.5</v>
+        <v>3.9</v>
       </c>
       <c r="C161" t="n">
-        <v>991.5</v>
+        <v>1044.2</v>
       </c>
       <c r="D161" t="n">
-        <v>3730.5</v>
+        <v>7070.7</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.8</v>
+        <v>2.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1168.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="C162" t="n">
-        <v>1064.8</v>
+        <v>1044.3</v>
       </c>
       <c r="D162" t="n">
-        <v>4865.9</v>
+        <v>8083.8</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1013.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>6.4</v>
       </c>
       <c r="C163" t="n">
-        <v>1042.1</v>
+        <v>1085.6</v>
       </c>
       <c r="D163" t="n">
-        <v>5902.4</v>
+        <v>9287.5</v>
       </c>
       <c r="E163" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1203.7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="C164" t="n">
-        <v>1044.2</v>
+        <v>1071.4</v>
       </c>
       <c r="D164" t="n">
-        <v>7070.7</v>
+        <v>10346</v>
       </c>
       <c r="E164" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1058.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="C165" t="n">
-        <v>1044.3</v>
+        <v>1081.3</v>
       </c>
       <c r="D165" t="n">
-        <v>8083.8</v>
+        <v>11375.8</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>3.6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1029.799999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C166" t="n">
-        <v>1085.6</v>
+        <v>1157.96731</v>
       </c>
       <c r="D166" t="n">
-        <v>9287.5</v>
+        <v>12515.2969</v>
       </c>
       <c r="E166" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1139.4969</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1167.2</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>10266.8</v>
+        <v>1437.1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.8</v>
+        <v>-17.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1437.1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8</v>
+        <v>-2.1</v>
       </c>
       <c r="C168" t="n">
-        <v>1182.8</v>
+        <v>1045.6</v>
       </c>
       <c r="D168" t="n">
-        <v>11508</v>
+        <v>2459.7</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5</v>
+        <v>-12.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1022.6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C169" t="n">
-        <v>1209.9</v>
+        <v>1046.6</v>
       </c>
       <c r="D169" t="n">
-        <v>12700.6</v>
+        <v>3522.9</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8</v>
+        <v>-8.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1063.2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1076.7</v>
+      </c>
       <c r="D170" t="n">
-        <v>1437.1</v>
+        <v>4636.2</v>
       </c>
       <c r="E170" t="n">
-        <v>-17.8</v>
+        <v>-6.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1113.3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-2.1</v>
+        <v>4.1</v>
       </c>
       <c r="C171" t="n">
-        <v>1045.6</v>
+        <v>1110.9</v>
       </c>
       <c r="D171" t="n">
-        <v>2459.7</v>
+        <v>5757.3</v>
       </c>
       <c r="E171" t="n">
-        <v>-12.4</v>
+        <v>-4.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1121.1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="C172" t="n">
-        <v>1046.6</v>
+        <v>1106.5</v>
       </c>
       <c r="D172" t="n">
-        <v>3522.9</v>
+        <v>6843.8</v>
       </c>
       <c r="E172" t="n">
-        <v>-8.1</v>
+        <v>-3.3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1086.5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-0.5</v>
+        <v>5.3</v>
       </c>
       <c r="C173" t="n">
-        <v>1076.7</v>
+        <v>1113.3</v>
       </c>
       <c r="D173" t="n">
-        <v>4636.2</v>
+        <v>7939.3</v>
       </c>
       <c r="E173" t="n">
-        <v>-6.7</v>
+        <v>-2.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1095.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="C174" t="n">
-        <v>1110.9</v>
+        <v>1151</v>
       </c>
       <c r="D174" t="n">
-        <v>5757.3</v>
+        <v>9102.1</v>
       </c>
       <c r="E174" t="n">
-        <v>-4.8</v>
+        <v>-1.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1162.8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4.9</v>
+        <v>8.1</v>
       </c>
       <c r="C175" t="n">
-        <v>1106.5</v>
+        <v>1167.2</v>
       </c>
       <c r="D175" t="n">
-        <v>6843.8</v>
+        <v>10266.8</v>
       </c>
       <c r="E175" t="n">
-        <v>-3.3</v>
+        <v>-0.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1164.699999999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="C176" t="n">
-        <v>1113.3</v>
+        <v>1182.8</v>
       </c>
       <c r="D176" t="n">
-        <v>7939.3</v>
+        <v>11508</v>
       </c>
       <c r="E176" t="n">
-        <v>-2.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1241.200000000001</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="C177" t="n">
-        <v>1151</v>
+        <v>1209.9</v>
       </c>
       <c r="D177" t="n">
-        <v>9102.1</v>
+        <v>12700.6</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.8</v>
+        <v>0.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1192.6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1101.21606</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>11164.13815</v>
+        <v>2069.77488</v>
       </c>
       <c r="E178" t="n">
-        <v>8.4</v>
+        <v>42</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2069.77488</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-2.2</v>
+        <v>11.1</v>
       </c>
       <c r="C179" t="n">
-        <v>1158.1</v>
+        <v>1196.9</v>
       </c>
       <c r="D179" t="n">
-        <v>12329.5</v>
+        <v>3253.2</v>
       </c>
       <c r="E179" t="n">
-        <v>7.3</v>
+        <v>28.9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1183.42512</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="C180" t="n">
-        <v>1234.4</v>
+        <v>1135.5</v>
       </c>
       <c r="D180" t="n">
-        <v>13583.9</v>
+        <v>4392.3</v>
       </c>
       <c r="E180" t="n">
-        <v>6.8</v>
+        <v>22.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1139.1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1161.4</v>
+      </c>
       <c r="D181" t="n">
-        <v>2069.77488</v>
+        <v>5557.3</v>
       </c>
       <c r="E181" t="n">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>11.1</v>
+        <v>5.8</v>
       </c>
       <c r="C182" t="n">
-        <v>1196.9</v>
+        <v>1190.2</v>
       </c>
       <c r="D182" t="n">
-        <v>3253.2</v>
+        <v>6742.5</v>
       </c>
       <c r="E182" t="n">
-        <v>28.9</v>
+        <v>16</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1185.2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6.2</v>
+        <v>1.5</v>
       </c>
       <c r="C183" t="n">
-        <v>1135.5</v>
+        <v>1135</v>
       </c>
       <c r="D183" t="n">
-        <v>4392.3</v>
+        <v>7880.2</v>
       </c>
       <c r="E183" t="n">
-        <v>22.5</v>
+        <v>14.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1137.7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="C184" t="n">
-        <v>1161.4</v>
+        <v>1148.2</v>
       </c>
       <c r="D184" t="n">
-        <v>5557.3</v>
+        <v>9021.1</v>
       </c>
       <c r="E184" t="n">
-        <v>19</v>
+        <v>12.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1140.900000000001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5.8</v>
+        <v>-7.8</v>
       </c>
       <c r="C185" t="n">
-        <v>1190.2</v>
+        <v>1073.6</v>
       </c>
       <c r="D185" t="n">
-        <v>6742.5</v>
+        <v>10116.3</v>
       </c>
       <c r="E185" t="n">
-        <v>16</v>
+        <v>10.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1095.199999999999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1.5</v>
+        <v>-6.7</v>
       </c>
       <c r="C186" t="n">
-        <v>1135</v>
+        <v>1101.21606</v>
       </c>
       <c r="D186" t="n">
-        <v>7880.2</v>
+        <v>11164.13815</v>
       </c>
       <c r="E186" t="n">
-        <v>14.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1047.838150000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1.8</v>
+        <v>-2.2</v>
       </c>
       <c r="C187" t="n">
-        <v>1148.2</v>
+        <v>1158.1</v>
       </c>
       <c r="D187" t="n">
-        <v>9021.1</v>
+        <v>12329.5</v>
       </c>
       <c r="E187" t="n">
-        <v>12.8</v>
+        <v>7.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1165.361849999999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-7.8</v>
+        <v>1.2</v>
       </c>
       <c r="C188" t="n">
-        <v>1073.6</v>
+        <v>1234.4</v>
       </c>
       <c r="D188" t="n">
-        <v>10116.3</v>
+        <v>13583.9</v>
       </c>
       <c r="E188" t="n">
-        <v>10.4</v>
+        <v>6.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1254.4</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/机制纸及纸板（外购原纸加工除外）.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/机制纸及纸板（外购原纸加工除外）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,4090 +454,2775 @@
           <t>机制纸及纸板（外购原纸加工除外）产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>机制纸及纸板（外购原纸加工除外）产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005-02</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="n">
-        <v>321.99</v>
+        <v>870</v>
       </c>
       <c r="D2" t="n">
-        <v>691.05</v>
+        <v>8208.799999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F2" t="n">
-        <v>691.05</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005-03</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>407.75</v>
+        <v>905.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1094.55</v>
+        <v>9114.4</v>
       </c>
       <c r="E3" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>403.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005-04</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.2</v>
+        <v>5.2</v>
       </c>
       <c r="C4" t="n">
-        <v>425.57</v>
+        <v>917.4</v>
       </c>
       <c r="D4" t="n">
-        <v>1525.23</v>
+        <v>10035.7</v>
       </c>
       <c r="E4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>430.6800000000001</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.6</v>
+        <v>16.3</v>
       </c>
       <c r="C5" t="n">
-        <v>430.07</v>
+        <v>668.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1960.77</v>
+        <v>1414.4</v>
       </c>
       <c r="E5" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>435.54</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.1</v>
+        <v>17.4</v>
       </c>
       <c r="C6" t="n">
-        <v>459.43</v>
+        <v>864.3</v>
       </c>
       <c r="D6" t="n">
-        <v>2432.87</v>
+        <v>2284.6</v>
       </c>
       <c r="E6" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>472.0999999999999</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.5</v>
+        <v>13.6</v>
       </c>
       <c r="C7" t="n">
-        <v>440.51</v>
+        <v>844.9</v>
       </c>
       <c r="D7" t="n">
-        <v>2889.46</v>
+        <v>3128.2</v>
       </c>
       <c r="E7" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>456.5900000000001</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.9</v>
+        <v>11.7</v>
       </c>
       <c r="C8" t="n">
-        <v>456.45</v>
+        <v>878.1</v>
       </c>
       <c r="D8" t="n">
-        <v>3347.08</v>
+        <v>4018.1</v>
       </c>
       <c r="E8" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>457.6199999999999</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.7</v>
+        <v>6.2</v>
       </c>
       <c r="C9" t="n">
-        <v>488.11</v>
+        <v>897.1</v>
       </c>
       <c r="D9" t="n">
-        <v>3852.26</v>
+        <v>4926.7</v>
       </c>
       <c r="E9" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>505.1800000000003</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.5</v>
+        <v>7.4</v>
       </c>
       <c r="C10" t="n">
-        <v>482.16</v>
+        <v>823.4</v>
       </c>
       <c r="D10" t="n">
-        <v>4328.45</v>
+        <v>5746.6</v>
       </c>
       <c r="E10" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>476.1899999999996</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>506.01</v>
+        <v>846.1</v>
       </c>
       <c r="D11" t="n">
-        <v>4841.66</v>
+        <v>6520.5</v>
       </c>
       <c r="E11" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>513.21</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2005-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>548.85</v>
+        <v>864</v>
       </c>
       <c r="D12" t="n">
-        <v>5404.3</v>
+        <v>7339.2</v>
       </c>
       <c r="E12" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>562.6400000000003</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.3</v>
+        <v>10.3</v>
       </c>
       <c r="C13" t="n">
-        <v>469.18</v>
+        <v>954.7</v>
       </c>
       <c r="D13" t="n">
-        <v>949.21</v>
+        <v>9271.9</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
-      </c>
-      <c r="F13" t="n">
-        <v>949.21</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.2</v>
+        <v>13.5</v>
       </c>
       <c r="C14" t="n">
-        <v>531.34</v>
+        <v>1001.7</v>
       </c>
       <c r="D14" t="n">
-        <v>1457.08</v>
+        <v>10172.7</v>
       </c>
       <c r="E14" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>507.8699999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.3</v>
+        <v>5.1</v>
       </c>
       <c r="C15" t="n">
-        <v>548.16</v>
+        <v>946.8</v>
       </c>
       <c r="D15" t="n">
-        <v>2014.93</v>
+        <v>11034.3</v>
       </c>
       <c r="E15" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>557.8500000000001</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2006-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.8</v>
+        <v>12.8</v>
       </c>
       <c r="C16" t="n">
-        <v>554.05</v>
+        <v>720.1</v>
       </c>
       <c r="D16" t="n">
-        <v>2572.85</v>
+        <v>1576.2</v>
       </c>
       <c r="E16" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>557.9199999999998</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2006-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.4</v>
+        <v>14.1</v>
       </c>
       <c r="C17" t="n">
-        <v>584.08</v>
+        <v>936.1</v>
       </c>
       <c r="D17" t="n">
-        <v>3167.1</v>
+        <v>2479.6</v>
       </c>
       <c r="E17" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>594.25</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.1</v>
+        <v>16.3</v>
       </c>
       <c r="C18" t="n">
-        <v>576.96</v>
+        <v>941.6</v>
       </c>
       <c r="D18" t="n">
-        <v>3745.68</v>
+        <v>3427.9</v>
       </c>
       <c r="E18" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>578.5799999999999</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2006-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.9</v>
+        <v>13.6</v>
       </c>
       <c r="C19" t="n">
-        <v>580.45</v>
+        <v>953.9</v>
       </c>
       <c r="D19" t="n">
-        <v>4334.74</v>
+        <v>4385.1</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
-      </c>
-      <c r="F19" t="n">
-        <v>589.0599999999999</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2006-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="C20" t="n">
-        <v>594.13</v>
+        <v>1026.6</v>
       </c>
       <c r="D20" t="n">
-        <v>4941.66</v>
+        <v>5415.3</v>
       </c>
       <c r="E20" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>606.9200000000001</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2006-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.2</v>
+        <v>18.3</v>
       </c>
       <c r="C21" t="n">
-        <v>584.14</v>
+        <v>947.7</v>
       </c>
       <c r="D21" t="n">
-        <v>5526.14</v>
+        <v>6369.6</v>
       </c>
       <c r="E21" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>584.4800000000005</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2006-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>962.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7346.5</v>
+      </c>
+      <c r="E22" t="n">
         <v>15.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>617.5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6145.23</v>
-      </c>
-      <c r="E22" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>619.0899999999992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="C23" t="n">
-        <v>647.21</v>
+        <v>962.3</v>
       </c>
       <c r="D23" t="n">
-        <v>6804.3</v>
+        <v>8306.700000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="n">
-        <v>659.0700000000006</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="C24" t="n">
-        <v>487.5</v>
+        <v>1003.8</v>
       </c>
       <c r="D24" t="n">
-        <v>1044.69</v>
+        <v>9685</v>
       </c>
       <c r="E24" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1044.69</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.3</v>
+        <v>2.8</v>
       </c>
       <c r="C25" t="n">
-        <v>614.6799999999999</v>
+        <v>1015.3</v>
       </c>
       <c r="D25" t="n">
-        <v>1674.19</v>
+        <v>10700.1</v>
       </c>
       <c r="E25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>629.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.4</v>
+        <v>8.5</v>
       </c>
       <c r="C26" t="n">
-        <v>635.42</v>
+        <v>1012</v>
       </c>
       <c r="D26" t="n">
-        <v>2315.32</v>
+        <v>11375.5</v>
       </c>
       <c r="E26" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>641.1300000000001</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17</v>
+        <v>20.9</v>
       </c>
       <c r="C27" t="n">
-        <v>658.15</v>
+        <v>887.6</v>
       </c>
       <c r="D27" t="n">
-        <v>2976.89</v>
+        <v>1746.2</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
-      </c>
-      <c r="F27" t="n">
-        <v>661.5699999999997</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.9</v>
+        <v>13.5</v>
       </c>
       <c r="C28" t="n">
-        <v>705.03</v>
+        <v>1084.3</v>
       </c>
       <c r="D28" t="n">
-        <v>3690.91</v>
+        <v>2785.1</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
-      </c>
-      <c r="F28" t="n">
-        <v>714.02</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>663.92</v>
+        <v>1029.3</v>
       </c>
       <c r="D29" t="n">
-        <v>4342.42</v>
+        <v>3805.6</v>
       </c>
       <c r="E29" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>651.5100000000002</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.9</v>
+        <v>6.4</v>
       </c>
       <c r="C30" t="n">
-        <v>666.0700000000001</v>
+        <v>1015</v>
       </c>
       <c r="D30" t="n">
-        <v>4981.99</v>
+        <v>4760</v>
       </c>
       <c r="E30" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>639.5699999999997</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.7</v>
+        <v>4.5</v>
       </c>
       <c r="C31" t="n">
-        <v>690.89</v>
+        <v>1042.4</v>
       </c>
       <c r="D31" t="n">
-        <v>5688.74</v>
+        <v>5754.8</v>
       </c>
       <c r="E31" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="F31" t="n">
-        <v>706.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>18.3</v>
+        <v>4.3</v>
       </c>
       <c r="C32" t="n">
-        <v>720.5599999999999</v>
+        <v>976.7</v>
       </c>
       <c r="D32" t="n">
-        <v>6413.09</v>
+        <v>6733.3</v>
       </c>
       <c r="E32" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>724.3500000000004</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.1</v>
+        <v>2.6</v>
       </c>
       <c r="C33" t="n">
-        <v>708.35</v>
+        <v>975.8</v>
       </c>
       <c r="D33" t="n">
-        <v>7000.39</v>
+        <v>7678</v>
       </c>
       <c r="E33" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>587.3000000000002</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.3</v>
+        <v>7.3</v>
       </c>
       <c r="C34" t="n">
-        <v>766.9299999999999</v>
+        <v>1017.2</v>
       </c>
       <c r="D34" t="n">
-        <v>7786.97</v>
+        <v>8694</v>
       </c>
       <c r="E34" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>786.5799999999999</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.2</v>
+        <v>0.1</v>
       </c>
       <c r="C35" t="n">
-        <v>555.23</v>
+        <v>1010.6</v>
       </c>
       <c r="D35" t="n">
-        <v>1185.65</v>
+        <v>9734</v>
       </c>
       <c r="E35" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1185.65</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.4</v>
+        <v>-0.4</v>
       </c>
       <c r="C36" t="n">
-        <v>731.47</v>
+        <v>1003.7</v>
       </c>
       <c r="D36" t="n">
-        <v>1923.82</v>
-      </c>
-      <c r="E36" t="n">
-        <v>15</v>
-      </c>
-      <c r="F36" t="n">
-        <v>738.1699999999998</v>
-      </c>
+        <v>10664.2</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.5</v>
+        <v>-0.8</v>
       </c>
       <c r="C37" t="n">
-        <v>739.76</v>
+        <v>988.5</v>
       </c>
       <c r="D37" t="n">
-        <v>2658.03</v>
+        <v>11514.3</v>
       </c>
       <c r="E37" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>734.2100000000003</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>737.12</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>3398.55</v>
+        <v>1745</v>
       </c>
       <c r="E38" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>740.52</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.2</v>
+        <v>-1.3</v>
       </c>
       <c r="C39" t="n">
-        <v>742.73</v>
+        <v>1083.2</v>
       </c>
       <c r="D39" t="n">
-        <v>4172.88</v>
+        <v>2855.3</v>
       </c>
       <c r="E39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F39" t="n">
-        <v>774.3299999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="C40" t="n">
-        <v>698.3200000000001</v>
+        <v>1052.7</v>
       </c>
       <c r="D40" t="n">
-        <v>4850.83</v>
+        <v>3886.4</v>
       </c>
       <c r="E40" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>677.9499999999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.6</v>
+        <v>-1.1</v>
       </c>
       <c r="C41" t="n">
-        <v>705.11</v>
+        <v>1012.1</v>
       </c>
       <c r="D41" t="n">
-        <v>5563.6</v>
+        <v>4866.8</v>
       </c>
       <c r="E41" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>712.7700000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="C42" t="n">
-        <v>688.04</v>
+        <v>1027.3</v>
       </c>
       <c r="D42" t="n">
-        <v>6273.94</v>
+        <v>5912.7</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
-      </c>
-      <c r="F42" t="n">
-        <v>710.3399999999992</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.1</v>
+        <v>-2.9</v>
       </c>
       <c r="C43" t="n">
-        <v>691.62</v>
+        <v>956.2</v>
       </c>
       <c r="D43" t="n">
-        <v>6980.94</v>
+        <v>6804.9</v>
       </c>
       <c r="E43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>707</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.9</v>
+        <v>-2.6</v>
       </c>
       <c r="C44" t="n">
-        <v>686.59</v>
+        <v>957.8</v>
       </c>
       <c r="D44" t="n">
-        <v>7689.98</v>
+        <v>7741.9</v>
       </c>
       <c r="E44" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>709.04</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-4</v>
+        <v>-0.8</v>
       </c>
       <c r="C45" t="n">
-        <v>722.46</v>
+        <v>1019.8</v>
       </c>
       <c r="D45" t="n">
-        <v>8390.940000000001</v>
+        <v>8766.4</v>
       </c>
       <c r="E45" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F45" t="n">
-        <v>700.9600000000009</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B46" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9967.6</v>
+      </c>
+      <c r="E46" t="n">
         <v>3.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>602.58</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1157.26</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1157.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.7</v>
+        <v>-2.1</v>
       </c>
       <c r="C47" t="n">
-        <v>745.8200000000001</v>
+        <v>1011.2</v>
       </c>
       <c r="D47" t="n">
-        <v>1887.2</v>
+        <v>10981.4</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>729.9400000000001</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.4</v>
+        <v>-1.7</v>
       </c>
       <c r="C48" t="n">
-        <v>756.66</v>
+        <v>1003.8</v>
       </c>
       <c r="D48" t="n">
-        <v>2674.36</v>
+        <v>11785.8</v>
       </c>
       <c r="E48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>787.1600000000001</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>798.45</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>3446.88</v>
+        <v>1725.4</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>772.52</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15.7</v>
+        <v>3.9</v>
       </c>
       <c r="C50" t="n">
-        <v>852.59</v>
+        <v>1078.1</v>
       </c>
       <c r="D50" t="n">
-        <v>4310.4</v>
+        <v>2832.4</v>
       </c>
       <c r="E50" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>863.5199999999995</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11.5</v>
+        <v>3.3</v>
       </c>
       <c r="C51" t="n">
-        <v>776.72</v>
+        <v>1038.4</v>
       </c>
       <c r="D51" t="n">
-        <v>5081.98</v>
+        <v>3850.6</v>
       </c>
       <c r="E51" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>771.5799999999999</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18.8</v>
+        <v>3.7</v>
       </c>
       <c r="C52" t="n">
-        <v>830.25</v>
+        <v>1032.8</v>
       </c>
       <c r="D52" t="n">
-        <v>5946.71</v>
+        <v>4933</v>
       </c>
       <c r="E52" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F52" t="n">
-        <v>864.7300000000005</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18.7</v>
+        <v>3.4</v>
       </c>
       <c r="C53" t="n">
-        <v>828.39</v>
+        <v>1038.2</v>
       </c>
       <c r="D53" t="n">
-        <v>6738.4</v>
+        <v>5953.3</v>
       </c>
       <c r="E53" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F53" t="n">
-        <v>791.6899999999996</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>3.7</v>
       </c>
       <c r="C54" t="n">
-        <v>845.2</v>
+        <v>983</v>
       </c>
       <c r="D54" t="n">
-        <v>7581.91</v>
+        <v>6927.2</v>
       </c>
       <c r="E54" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>843.5100000000002</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.8</v>
+        <v>5.1</v>
       </c>
       <c r="C55" t="n">
-        <v>872.01</v>
+        <v>999.4</v>
       </c>
       <c r="D55" t="n">
-        <v>8467.379999999999</v>
+        <v>7925.6</v>
       </c>
       <c r="E55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F55" t="n">
-        <v>885.4699999999993</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>26.1</v>
+        <v>-1.1</v>
       </c>
       <c r="C56" t="n">
-        <v>907.89</v>
+        <v>1004.6</v>
       </c>
       <c r="D56" t="n">
-        <v>9388.719999999999</v>
+        <v>8946.799999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>921.3400000000001</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>16.3</v>
+        <v>-1.3</v>
       </c>
       <c r="C57" t="n">
-        <v>668.9</v>
+        <v>999.3</v>
       </c>
       <c r="D57" t="n">
-        <v>1414.4</v>
+        <v>9789.299999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1414.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>17.4</v>
+        <v>3.9</v>
       </c>
       <c r="C58" t="n">
-        <v>864.3</v>
+        <v>1034</v>
       </c>
       <c r="D58" t="n">
-        <v>2284.6</v>
+        <v>10827.7</v>
       </c>
       <c r="E58" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>870.1999999999998</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13.6</v>
+        <v>3.2</v>
       </c>
       <c r="C59" t="n">
-        <v>844.9</v>
+        <v>1026.1</v>
       </c>
       <c r="D59" t="n">
-        <v>3128.2</v>
+        <v>11773.9</v>
       </c>
       <c r="E59" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F59" t="n">
-        <v>843.5999999999999</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11.7</v>
+        <v>-6.6</v>
       </c>
       <c r="C60" t="n">
-        <v>878.1</v>
+        <v>734.8</v>
       </c>
       <c r="D60" t="n">
-        <v>4018.1</v>
+        <v>1697.6</v>
       </c>
       <c r="E60" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>889.9000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="C61" t="n">
-        <v>897.1</v>
+        <v>976.3</v>
       </c>
       <c r="D61" t="n">
-        <v>4926.7</v>
+        <v>2690.6</v>
       </c>
       <c r="E61" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>908.5999999999999</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C62" t="n">
-        <v>823.4</v>
+        <v>1010.4</v>
       </c>
       <c r="D62" t="n">
-        <v>5746.6</v>
+        <v>3688</v>
       </c>
       <c r="E62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>819.9000000000005</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="C63" t="n">
-        <v>846.1</v>
+        <v>1006.2</v>
       </c>
       <c r="D63" t="n">
-        <v>6520.5</v>
+        <v>4695</v>
       </c>
       <c r="E63" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>773.8999999999996</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="C64" t="n">
-        <v>864</v>
+        <v>1032.7</v>
       </c>
       <c r="D64" t="n">
-        <v>7339.2</v>
+        <v>5763.6</v>
       </c>
       <c r="E64" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F64" t="n">
-        <v>818.6999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="C65" t="n">
-        <v>870</v>
+        <v>985.7</v>
       </c>
       <c r="D65" t="n">
-        <v>8208.799999999999</v>
+        <v>6730.3</v>
       </c>
       <c r="E65" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F65" t="n">
-        <v>869.5999999999995</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C66" t="n">
-        <v>905.9</v>
+        <v>988.7</v>
       </c>
       <c r="D66" t="n">
-        <v>9114.4</v>
+        <v>7715.9</v>
       </c>
       <c r="E66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>905.6000000000004</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="C67" t="n">
-        <v>917.4</v>
+        <v>1013.9</v>
       </c>
       <c r="D67" t="n">
-        <v>10035.7</v>
+        <v>8782</v>
       </c>
       <c r="E67" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F67" t="n">
-        <v>921.3000000000011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>12.8</v>
+        <v>3.9</v>
       </c>
       <c r="C68" t="n">
-        <v>720.1</v>
+        <v>1070.1</v>
       </c>
       <c r="D68" t="n">
-        <v>1576.2</v>
+        <v>10088.5</v>
       </c>
       <c r="E68" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1576.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>14.1</v>
+        <v>1.7</v>
       </c>
       <c r="C69" t="n">
-        <v>936.1</v>
+        <v>1081.7</v>
       </c>
       <c r="D69" t="n">
-        <v>2479.6</v>
+        <v>11191.8</v>
       </c>
       <c r="E69" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>903.3999999999999</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16.3</v>
+        <v>6.2</v>
       </c>
       <c r="C70" t="n">
-        <v>941.6</v>
+        <v>1111.6</v>
       </c>
       <c r="D70" t="n">
-        <v>3427.9</v>
+        <v>12319.2</v>
       </c>
       <c r="E70" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F70" t="n">
-        <v>948.3000000000002</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="C71" t="n">
-        <v>953.9</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>4385.1</v>
+        <v>1731.1</v>
       </c>
       <c r="E71" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F71" t="n">
-        <v>957.2000000000003</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>18.1</v>
+        <v>9.1</v>
       </c>
       <c r="C72" t="n">
-        <v>1026.6</v>
+        <v>1060</v>
       </c>
       <c r="D72" t="n">
-        <v>5415.3</v>
+        <v>2840.6</v>
       </c>
       <c r="E72" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1030.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>18.3</v>
+        <v>1.4</v>
       </c>
       <c r="C73" t="n">
-        <v>947.7</v>
+        <v>1028</v>
       </c>
       <c r="D73" t="n">
-        <v>6369.6</v>
+        <v>3880.7</v>
       </c>
       <c r="E73" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F73" t="n">
-        <v>954.3000000000002</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>16.4</v>
+        <v>2.1</v>
       </c>
       <c r="C74" t="n">
-        <v>962.7</v>
+        <v>1031.5</v>
       </c>
       <c r="D74" t="n">
-        <v>7346.5</v>
+        <v>4898.7</v>
       </c>
       <c r="E74" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>976.8999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12.3</v>
+        <v>0.1</v>
       </c>
       <c r="C75" t="n">
-        <v>962.3</v>
+        <v>1044</v>
       </c>
       <c r="D75" t="n">
-        <v>8306.700000000001</v>
+        <v>5967.6</v>
       </c>
       <c r="E75" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>960.2000000000007</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10.3</v>
+        <v>0.8</v>
       </c>
       <c r="C76" t="n">
-        <v>954.7</v>
+        <v>1009.7</v>
       </c>
       <c r="D76" t="n">
-        <v>9271.9</v>
+        <v>6987.3</v>
       </c>
       <c r="E76" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>965.1999999999989</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>13.5</v>
+        <v>-2.5</v>
       </c>
       <c r="C77" t="n">
-        <v>1001.7</v>
+        <v>988</v>
       </c>
       <c r="D77" t="n">
-        <v>10172.7</v>
+        <v>7970.9</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
-      </c>
-      <c r="F77" t="n">
-        <v>900.8000000000011</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5.1</v>
+        <v>-2.2</v>
       </c>
       <c r="C78" t="n">
-        <v>946.8</v>
+        <v>1018.6</v>
       </c>
       <c r="D78" t="n">
-        <v>11034.3</v>
+        <v>9017.9</v>
       </c>
       <c r="E78" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>861.5999999999985</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>20.9</v>
+        <v>-0.3</v>
       </c>
       <c r="C79" t="n">
-        <v>887.6</v>
+        <v>1089.9</v>
       </c>
       <c r="D79" t="n">
-        <v>1746.2</v>
+        <v>10633.2</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1746.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13.5</v>
+        <v>-3.4</v>
       </c>
       <c r="C80" t="n">
-        <v>1084.3</v>
+        <v>1055.3</v>
       </c>
       <c r="D80" t="n">
-        <v>2785.1</v>
+        <v>11590</v>
       </c>
       <c r="E80" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1038.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8.199999999999999</v>
+        <v>-4.1</v>
       </c>
       <c r="C81" t="n">
-        <v>1029.3</v>
+        <v>1067.8</v>
       </c>
       <c r="D81" t="n">
-        <v>3805.6</v>
+        <v>12542</v>
       </c>
       <c r="E81" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1020.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1015</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>4760</v>
+        <v>1911.6</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>954.4000000000001</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="C83" t="n">
-        <v>1042.4</v>
+        <v>1112.5</v>
       </c>
       <c r="D83" t="n">
-        <v>5754.8</v>
+        <v>3034.1</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>994.8000000000002</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>4.3</v>
       </c>
       <c r="C84" t="n">
-        <v>976.7</v>
+        <v>1095.4</v>
       </c>
       <c r="D84" t="n">
-        <v>6733.3</v>
+        <v>4128</v>
       </c>
       <c r="E84" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>978.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="C85" t="n">
-        <v>975.8</v>
+        <v>1096.3</v>
       </c>
       <c r="D85" t="n">
-        <v>7678</v>
+        <v>5250.2</v>
       </c>
       <c r="E85" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F85" t="n">
-        <v>944.6999999999998</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="C86" t="n">
-        <v>1017.2</v>
+        <v>1122.9</v>
       </c>
       <c r="D86" t="n">
-        <v>8694</v>
+        <v>6366.3</v>
       </c>
       <c r="E86" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1016</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>1003.8</v>
+        <v>1057.3</v>
       </c>
       <c r="D87" t="n">
-        <v>9685</v>
+        <v>7423.9</v>
       </c>
       <c r="E87" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F87" t="n">
-        <v>991</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="C88" t="n">
-        <v>1015.3</v>
+        <v>1050</v>
       </c>
       <c r="D88" t="n">
-        <v>10700.1</v>
+        <v>8467</v>
       </c>
       <c r="E88" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1015.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="C89" t="n">
-        <v>1012</v>
+        <v>1094.5</v>
       </c>
       <c r="D89" t="n">
-        <v>11375.5</v>
+        <v>9559.4</v>
       </c>
       <c r="E89" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>675.3999999999996</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="C90" t="n">
+        <v>963.6</v>
+      </c>
       <c r="D90" t="n">
-        <v>1745</v>
+        <v>9735.299999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1745</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
       <c r="C91" t="n">
-        <v>1083.2</v>
+        <v>979.7</v>
       </c>
       <c r="D91" t="n">
-        <v>2855.3</v>
+        <v>10748.1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1110.3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="C92" t="n">
-        <v>1052.7</v>
+        <v>1043</v>
       </c>
       <c r="D92" t="n">
-        <v>3886.4</v>
+        <v>11660.6</v>
       </c>
       <c r="E92" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1031.1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1012.1</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>4866.8</v>
+        <v>1805.1</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>980.4000000000001</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1.2</v>
+        <v>1.9</v>
       </c>
       <c r="C94" t="n">
-        <v>1027.3</v>
+        <v>1088.8</v>
       </c>
       <c r="D94" t="n">
-        <v>5912.7</v>
+        <v>2882.5</v>
       </c>
       <c r="E94" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1045.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-2.9</v>
+        <v>2.3</v>
       </c>
       <c r="C95" t="n">
-        <v>956.2</v>
+        <v>1068.2</v>
       </c>
       <c r="D95" t="n">
-        <v>6804.9</v>
+        <v>3942.8</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>892.1999999999998</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-2.6</v>
+        <v>0.5</v>
       </c>
       <c r="C96" t="n">
-        <v>957.8</v>
+        <v>1049.7</v>
       </c>
       <c r="D96" t="n">
-        <v>7741.9</v>
+        <v>4983.6</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F96" t="n">
-        <v>937</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.8</v>
+        <v>-5.1</v>
       </c>
       <c r="C97" t="n">
-        <v>1019.8</v>
+        <v>1013.5</v>
       </c>
       <c r="D97" t="n">
-        <v>8766.4</v>
+        <v>5985.9</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1024.5</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="C98" t="n">
-        <v>1010.6</v>
+        <v>999.3</v>
       </c>
       <c r="D98" t="n">
-        <v>9734</v>
+        <v>6923.3</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F98" t="n">
-        <v>967.6000000000004</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-0.4</v>
       </c>
       <c r="C99" t="n">
-        <v>1003.7</v>
+        <v>1005.6</v>
       </c>
       <c r="D99" t="n">
-        <v>10664.2</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="n">
-        <v>930.2000000000007</v>
+        <v>7925.4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.8</v>
+        <v>-4.7</v>
       </c>
       <c r="C100" t="n">
-        <v>988.5</v>
+        <v>989.9</v>
       </c>
       <c r="D100" t="n">
-        <v>11514.3</v>
+        <v>8866.4</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>850.0999999999985</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1071.4</v>
+      </c>
       <c r="D101" t="n">
-        <v>1725.4</v>
+        <v>10346</v>
       </c>
       <c r="E101" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1725.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>1078.1</v>
+        <v>1081.3</v>
       </c>
       <c r="D102" t="n">
-        <v>2832.4</v>
+        <v>11375.8</v>
       </c>
       <c r="E102" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1107</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="C103" t="n">
-        <v>1038.4</v>
+        <v>1157.96731</v>
       </c>
       <c r="D103" t="n">
-        <v>3850.6</v>
+        <v>12515.2969</v>
       </c>
       <c r="E103" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1018.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1032.8</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>4933</v>
+        <v>1692.9</v>
       </c>
       <c r="E104" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1082.4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="C105" t="n">
-        <v>1038.2</v>
+        <v>1047.2</v>
       </c>
       <c r="D105" t="n">
-        <v>5953.3</v>
+        <v>2746</v>
       </c>
       <c r="E105" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1020.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="C106" t="n">
-        <v>983</v>
+        <v>991.5</v>
       </c>
       <c r="D106" t="n">
-        <v>6927.2</v>
+        <v>3730.5</v>
       </c>
       <c r="E106" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F106" t="n">
-        <v>973.8999999999996</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>999.4</v>
+        <v>1064.8</v>
       </c>
       <c r="D107" t="n">
-        <v>7925.6</v>
+        <v>4865.9</v>
       </c>
       <c r="E107" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F107" t="n">
-        <v>998.4000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1.1</v>
+        <v>6.4</v>
       </c>
       <c r="C108" t="n">
-        <v>1004.6</v>
+        <v>1042.1</v>
       </c>
       <c r="D108" t="n">
-        <v>8946.799999999999</v>
+        <v>5902.4</v>
       </c>
       <c r="E108" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1021.199999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.6</v>
+        <v>3.9</v>
       </c>
       <c r="C109" t="n">
-        <v>1026.5</v>
+        <v>1044.2</v>
       </c>
       <c r="D109" t="n">
-        <v>9967.6</v>
+        <v>7070.7</v>
       </c>
       <c r="E109" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1020.800000000001</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-2.1</v>
+        <v>1.9</v>
       </c>
       <c r="C110" t="n">
-        <v>1011.2</v>
+        <v>1044.3</v>
       </c>
       <c r="D110" t="n">
-        <v>10981.4</v>
+        <v>8083.8</v>
       </c>
       <c r="E110" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1013.799999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-1.7</v>
+        <v>6.4</v>
       </c>
       <c r="C111" t="n">
-        <v>1003.8</v>
+        <v>1085.6</v>
       </c>
       <c r="D111" t="n">
-        <v>11785.8</v>
+        <v>9287.5</v>
       </c>
       <c r="E111" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F111" t="n">
-        <v>804.3999999999996</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-6.6</v>
+        <v>8.1</v>
       </c>
       <c r="C112" t="n">
-        <v>734.8</v>
+        <v>1167.2</v>
       </c>
       <c r="D112" t="n">
-        <v>1697.6</v>
+        <v>10266.8</v>
       </c>
       <c r="E112" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1697.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-6.3</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>976.3</v>
+        <v>1182.8</v>
       </c>
       <c r="D113" t="n">
-        <v>2690.6</v>
+        <v>11508</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>993</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.6</v>
+        <v>2.9</v>
       </c>
       <c r="C114" t="n">
-        <v>1010.4</v>
+        <v>1209.9</v>
       </c>
       <c r="D114" t="n">
-        <v>3688</v>
+        <v>12700.6</v>
       </c>
       <c r="E114" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>997.4000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1006.2</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>4695</v>
+        <v>1437.1</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1007</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="C116" t="n">
-        <v>1032.7</v>
+        <v>1045.6</v>
       </c>
       <c r="D116" t="n">
-        <v>5763.6</v>
+        <v>2459.7</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1068.6</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>2.8</v>
       </c>
       <c r="C117" t="n">
-        <v>985.7</v>
+        <v>1046.6</v>
       </c>
       <c r="D117" t="n">
-        <v>6730.3</v>
+        <v>3522.9</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>966.6999999999998</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C118" t="n">
-        <v>988.7</v>
+        <v>1076.7</v>
       </c>
       <c r="D118" t="n">
-        <v>7715.9</v>
+        <v>4636.2</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>985.5999999999995</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="C119" t="n">
-        <v>1013.9</v>
+        <v>1110.9</v>
       </c>
       <c r="D119" t="n">
-        <v>8782</v>
+        <v>5757.3</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1066.1</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1.3</v>
+        <v>4.9</v>
       </c>
       <c r="C120" t="n">
-        <v>999.3</v>
+        <v>1106.5</v>
       </c>
       <c r="D120" t="n">
-        <v>9789.299999999999</v>
+        <v>6843.8</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1007.299999999999</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="C121" t="n">
-        <v>1034</v>
+        <v>1113.3</v>
       </c>
       <c r="D121" t="n">
-        <v>10827.7</v>
+        <v>7939.3</v>
       </c>
       <c r="E121" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1038.400000000001</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="C122" t="n">
-        <v>1026.1</v>
+        <v>1151</v>
       </c>
       <c r="D122" t="n">
-        <v>11773.9</v>
+        <v>9102.1</v>
       </c>
       <c r="E122" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>946.1999999999989</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1101.21606</v>
+      </c>
       <c r="D123" t="n">
-        <v>1731.1</v>
+        <v>11164.13815</v>
       </c>
       <c r="E123" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1731.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9.1</v>
+        <v>-2.2</v>
       </c>
       <c r="C124" t="n">
-        <v>1060</v>
+        <v>1158.1</v>
       </c>
       <c r="D124" t="n">
-        <v>2840.6</v>
+        <v>12329.5</v>
       </c>
       <c r="E124" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1109.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C125" t="n">
-        <v>1028</v>
+        <v>1234.4</v>
       </c>
       <c r="D125" t="n">
-        <v>3880.7</v>
+        <v>13583.9</v>
       </c>
       <c r="E125" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1040.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1031.5</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>4898.7</v>
+        <v>2069.77488</v>
       </c>
       <c r="E126" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1018</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1</v>
+        <v>11.1</v>
       </c>
       <c r="C127" t="n">
-        <v>1044</v>
+        <v>1196.9</v>
       </c>
       <c r="D127" t="n">
-        <v>5967.6</v>
+        <v>3253.2</v>
       </c>
       <c r="E127" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1068.900000000001</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.8</v>
+        <v>6.2</v>
       </c>
       <c r="C128" t="n">
-        <v>1009.7</v>
+        <v>1135.5</v>
       </c>
       <c r="D128" t="n">
-        <v>6987.3</v>
+        <v>4392.3</v>
       </c>
       <c r="E128" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1019.7</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-2.5</v>
+        <v>6.7</v>
       </c>
       <c r="C129" t="n">
-        <v>988</v>
+        <v>1161.4</v>
       </c>
       <c r="D129" t="n">
-        <v>7970.9</v>
+        <v>5557.3</v>
       </c>
       <c r="E129" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>983.5999999999995</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-2.2</v>
+        <v>5.8</v>
       </c>
       <c r="C130" t="n">
-        <v>1018.6</v>
+        <v>1190.2</v>
       </c>
       <c r="D130" t="n">
-        <v>9017.9</v>
+        <v>6742.5</v>
       </c>
       <c r="E130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1047</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="C131" t="n">
-        <v>1070.1</v>
+        <v>1135</v>
       </c>
       <c r="D131" t="n">
-        <v>10088.5</v>
+        <v>7880.2</v>
       </c>
       <c r="E131" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1070.6</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="C132" t="n">
-        <v>1081.7</v>
+        <v>1148.2</v>
       </c>
       <c r="D132" t="n">
-        <v>11191.8</v>
+        <v>9021.1</v>
       </c>
       <c r="E132" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1103.299999999999</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6.2</v>
+        <v>-7.8</v>
       </c>
       <c r="C133" t="n">
-        <v>1111.6</v>
+        <v>1073.6</v>
       </c>
       <c r="D133" t="n">
-        <v>12319.2</v>
+        <v>10116.3</v>
       </c>
       <c r="E133" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1127.400000000001</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1151.5</v>
+      </c>
       <c r="D134" t="n">
-        <v>1911.6</v>
+        <v>11294.2</v>
       </c>
       <c r="E134" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1911.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="C135" t="n">
-        <v>1112.5</v>
+        <v>1195.2</v>
       </c>
       <c r="D135" t="n">
-        <v>3034.1</v>
+        <v>12494.3</v>
       </c>
       <c r="E135" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1122.5</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.3</v>
+        <v>-4.8</v>
       </c>
       <c r="C136" t="n">
-        <v>1095.4</v>
+        <v>1202.7</v>
       </c>
       <c r="D136" t="n">
-        <v>4128</v>
+        <v>13691.4</v>
       </c>
       <c r="E136" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1093.9</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1096.3</v>
-      </c>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>5250.2</v>
+        <v>2095.6</v>
       </c>
       <c r="E137" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1122.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="C138" t="n">
-        <v>1122.9</v>
+        <v>1245.5</v>
       </c>
       <c r="D138" t="n">
-        <v>6366.3</v>
+        <v>3340</v>
       </c>
       <c r="E138" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1116.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>-3.6</v>
       </c>
       <c r="C139" t="n">
-        <v>1057.3</v>
+        <v>1105.1</v>
       </c>
       <c r="D139" t="n">
-        <v>7423.9</v>
+        <v>4430.9</v>
       </c>
       <c r="E139" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1057.599999999999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="C140" t="n">
-        <v>1050</v>
+        <v>1189.2</v>
       </c>
       <c r="D140" t="n">
-        <v>8467</v>
+        <v>5601</v>
       </c>
       <c r="E140" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1043.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5.3</v>
+        <v>-1.5</v>
       </c>
       <c r="C141" t="n">
-        <v>1094.5</v>
+        <v>1185.50255</v>
       </c>
       <c r="D141" t="n">
-        <v>9559.4</v>
+        <v>6772.39254</v>
       </c>
       <c r="E141" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1092.4</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-0.3</v>
+        <v>-2.9</v>
       </c>
       <c r="C142" t="n">
-        <v>1089.9</v>
+        <v>1122.53287</v>
       </c>
       <c r="D142" t="n">
-        <v>10633.2</v>
+        <v>7921.60871</v>
       </c>
       <c r="E142" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1073.800000000001</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-3.4</v>
+        <v>-8.4</v>
       </c>
       <c r="C143" t="n">
-        <v>1055.3</v>
+        <v>1070.8</v>
       </c>
       <c r="D143" t="n">
-        <v>11590</v>
+        <v>8987.9</v>
       </c>
       <c r="E143" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>956.7999999999993</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-4.1</v>
+        <v>5.8</v>
       </c>
       <c r="C144" t="n">
-        <v>1067.8</v>
+        <v>1156.6</v>
       </c>
       <c r="D144" t="n">
-        <v>12542</v>
+        <v>10154.8</v>
       </c>
       <c r="E144" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>952</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>1805.1</v>
+        <v>1979.2237</v>
       </c>
       <c r="E145" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1805.1</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="C146" t="n">
-        <v>1088.8</v>
+        <v>1243.54132</v>
       </c>
       <c r="D146" t="n">
-        <v>2882.5</v>
+        <v>3207.79493</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1077.4</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="C147" t="n">
-        <v>1068.2</v>
+        <v>1161.1</v>
       </c>
       <c r="D147" t="n">
-        <v>3942.8</v>
+        <v>4333.7</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1060.3</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="C148" t="n">
-        <v>1049.7</v>
+        <v>1223.7609</v>
       </c>
       <c r="D148" t="n">
-        <v>4983.6</v>
+        <v>5544.81481</v>
       </c>
       <c r="E148" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1040.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-5.1</v>
+        <v>5.8</v>
       </c>
       <c r="C149" t="n">
-        <v>1013.5</v>
+        <v>1237.96491</v>
       </c>
       <c r="D149" t="n">
-        <v>5985.9</v>
+        <v>6755.53442</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1002.299999999999</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>2018-07</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>999.3</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6923.3</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>937.4000000000005</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>2018-08</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1005.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>7925.4</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1002.099999999999</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>2018-09</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>989.9</v>
-      </c>
-      <c r="D152" t="n">
-        <v>8866.4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>2018-10</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>963.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>9735.299999999999</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="F153" t="n">
-        <v>868.8999999999996</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>2018-11</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>979.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>10748.1</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1012.800000000001</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>2018-12</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1043</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11660.6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>912.5</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="n">
-        <v>1692.9</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1692.9</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1047.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>2746</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1053.1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>991.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>3730.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="F158" t="n">
-        <v>984.5</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>3</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1064.8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4865.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1135.4</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1042.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5902.4</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1036.5</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1044.2</v>
-      </c>
-      <c r="D161" t="n">
-        <v>7070.7</v>
-      </c>
-      <c r="E161" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1168.3</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1044.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>8083.8</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1013.1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1085.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>9287.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1203.7</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1071.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>10346</v>
-      </c>
-      <c r="E164" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1058.5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1081.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11375.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1029.799999999999</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1157.96731</v>
-      </c>
-      <c r="D166" t="n">
-        <v>12515.2969</v>
-      </c>
-      <c r="E166" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1139.4969</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="n">
-        <v>1437.1</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-17.8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1437.1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1045.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2459.7</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1022.6</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1046.6</v>
-      </c>
-      <c r="D169" t="n">
-        <v>3522.9</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1063.2</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1076.7</v>
-      </c>
-      <c r="D170" t="n">
-        <v>4636.2</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1113.3</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1110.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5757.3</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1121.1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1106.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>6843.8</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1086.5</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1113.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>7939.3</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1095.5</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1151</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9102.1</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1162.8</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1167.2</v>
-      </c>
-      <c r="D175" t="n">
-        <v>10266.8</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1164.699999999999</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>8</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1182.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>11508</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1241.200000000001</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1209.9</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12700.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1192.6</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="n">
-        <v>2069.77488</v>
-      </c>
-      <c r="E178" t="n">
-        <v>42</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2069.77488</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1196.9</v>
-      </c>
-      <c r="D179" t="n">
-        <v>3253.2</v>
-      </c>
-      <c r="E179" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1183.42512</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1135.5</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4392.3</v>
-      </c>
-      <c r="E180" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1139.1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1161.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5557.3</v>
-      </c>
-      <c r="E181" t="n">
-        <v>19</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1190.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>6742.5</v>
-      </c>
-      <c r="E182" t="n">
-        <v>16</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1185.2</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1135</v>
-      </c>
-      <c r="D183" t="n">
-        <v>7880.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1137.7</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1148.2</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9021.1</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1140.900000000001</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>-7.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1073.6</v>
-      </c>
-      <c r="D185" t="n">
-        <v>10116.3</v>
-      </c>
-      <c r="E185" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1095.199999999999</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1101.21606</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11164.13815</v>
-      </c>
-      <c r="E186" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1047.838150000001</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1158.1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12329.5</v>
-      </c>
-      <c r="E187" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1165.361849999999</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1234.4</v>
-      </c>
-      <c r="D188" t="n">
-        <v>13583.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1254.4</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
